--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cntn1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cntn1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.143837</v>
       </c>
       <c r="I2">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>2.163839781914222</v>
+        <v>3.000858865126667</v>
       </c>
       <c r="R2">
-        <v>19.474558037228</v>
+        <v>27.00772978614</v>
       </c>
       <c r="S2">
-        <v>0.2465336223799882</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="T2">
-        <v>0.2465336223799883</v>
+        <v>0.4331197020873655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.143837</v>
       </c>
       <c r="I3">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
         <v>0.2741272235754444</v>
@@ -641,10 +641,10 @@
         <v>2.467145012179</v>
       </c>
       <c r="S3">
-        <v>0.03123224648418181</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="T3">
-        <v>0.03123224648418182</v>
+        <v>0.03956530671562306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.143837</v>
       </c>
       <c r="I4">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>0.6794588827164443</v>
+        <v>0.7730913198923333</v>
       </c>
       <c r="R4">
-        <v>6.115129944447999</v>
+        <v>6.957821879030999</v>
       </c>
       <c r="S4">
-        <v>0.07741306034504956</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="T4">
-        <v>0.07741306034504959</v>
+        <v>0.111581749494894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.143837</v>
       </c>
       <c r="I5">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>1.575417573962222</v>
+        <v>0.5454459977621111</v>
       </c>
       <c r="R5">
-        <v>14.17875816566</v>
+        <v>4.909013979859</v>
       </c>
       <c r="S5">
-        <v>0.1794926798722642</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="T5">
-        <v>0.1794926798722643</v>
+        <v>0.07872526455705191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.143837</v>
       </c>
       <c r="I6">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>1.367943633074222</v>
+        <v>1.752273460062556</v>
       </c>
       <c r="R6">
-        <v>12.311492697668</v>
+        <v>15.770461140563</v>
       </c>
       <c r="S6">
-        <v>0.1558544684741351</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="T6">
-        <v>0.1558544684741351</v>
+        <v>0.2529089814311731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.143837</v>
       </c>
       <c r="I7">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>0.76449509337</v>
+        <v>0.5826777577192221</v>
       </c>
       <c r="R7">
-        <v>6.88045584033</v>
+        <v>5.244099819473</v>
       </c>
       <c r="S7">
-        <v>0.08710152490749649</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="T7">
-        <v>0.08710152490749649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.041132</v>
-      </c>
-      <c r="I8">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J8">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>45.13108133333333</v>
-      </c>
-      <c r="N8">
-        <v>135.393244</v>
-      </c>
-      <c r="O8">
-        <v>0.3170330137447531</v>
-      </c>
-      <c r="P8">
-        <v>0.3170330137447531</v>
-      </c>
-      <c r="Q8">
-        <v>0.6187772124675556</v>
-      </c>
-      <c r="R8">
-        <v>5.568994912208001</v>
-      </c>
-      <c r="S8">
-        <v>0.07049939136476481</v>
-      </c>
-      <c r="T8">
-        <v>0.07049939136476481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.041132</v>
-      </c>
-      <c r="I9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.717455666666666</v>
-      </c>
-      <c r="N9">
-        <v>17.152367</v>
-      </c>
-      <c r="O9">
-        <v>0.04016350035062346</v>
-      </c>
-      <c r="P9">
-        <v>0.04016350035062346</v>
-      </c>
-      <c r="Q9">
-        <v>0.07839012882711111</v>
-      </c>
-      <c r="R9">
-        <v>0.705511159444</v>
-      </c>
-      <c r="S9">
-        <v>0.008931253866441642</v>
-      </c>
-      <c r="T9">
-        <v>0.008931253866441642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.041132</v>
-      </c>
-      <c r="I10">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J10">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.17143466666666</v>
-      </c>
-      <c r="N10">
-        <v>42.514304</v>
-      </c>
-      <c r="O10">
-        <v>0.09955029901182223</v>
-      </c>
-      <c r="P10">
-        <v>0.09955029901182225</v>
-      </c>
-      <c r="Q10">
-        <v>0.1942998169031111</v>
-      </c>
-      <c r="R10">
-        <v>1.748698352128</v>
-      </c>
-      <c r="S10">
-        <v>0.02213723866677266</v>
-      </c>
-      <c r="T10">
-        <v>0.02213723866677266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.041132</v>
-      </c>
-      <c r="I11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>32.85839333333333</v>
-      </c>
-      <c r="N11">
-        <v>98.57517999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.2308208701745229</v>
-      </c>
-      <c r="P11">
-        <v>0.2308208701745229</v>
-      </c>
-      <c r="Q11">
-        <v>0.4505104781955556</v>
-      </c>
-      <c r="R11">
-        <v>4.05459430376</v>
-      </c>
-      <c r="S11">
-        <v>0.05132819030225863</v>
-      </c>
-      <c r="T11">
-        <v>0.05132819030225863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.041132</v>
-      </c>
-      <c r="I12">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J12">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>28.53112133333333</v>
-      </c>
-      <c r="N12">
-        <v>85.59336400000001</v>
-      </c>
-      <c r="O12">
-        <v>0.2004230147958612</v>
-      </c>
-      <c r="P12">
-        <v>0.2004230147958612</v>
-      </c>
-      <c r="Q12">
-        <v>0.3911806942275556</v>
-      </c>
-      <c r="R12">
-        <v>3.520626248048</v>
-      </c>
-      <c r="S12">
-        <v>0.04456854632172615</v>
-      </c>
-      <c r="T12">
-        <v>0.04456854632172615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.041132</v>
-      </c>
-      <c r="I13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.94503</v>
-      </c>
-      <c r="N13">
-        <v>47.83509</v>
-      </c>
-      <c r="O13">
-        <v>0.1120093019224172</v>
-      </c>
-      <c r="P13">
-        <v>0.1120093019224172</v>
-      </c>
-      <c r="Q13">
-        <v>0.21861699132</v>
-      </c>
-      <c r="R13">
-        <v>1.96755292188</v>
-      </c>
-      <c r="S13">
-        <v>0.02490777701492069</v>
-      </c>
-      <c r="T13">
-        <v>0.02490777701492068</v>
+        <v>0.08409899571389244</v>
       </c>
     </row>
   </sheetData>
